--- a/biology/Botanique/Phyteuma_nigrum/Phyteuma_nigrum.xlsx
+++ b/biology/Botanique/Phyteuma_nigrum/Phyteuma_nigrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phyteuma nigrum, la Raiponce noire, est une plante herbacée vivace de la famille des Campanulacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante dressée, glabre, atteignant 60 cm. Fleurs généralement violet noirâtre, parfois blanches, groupées en épis ovales s'allongeant par la suite. Tige torsadée. Floraison de mai à juillet.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe, notamment Autriche, Allemagne, France, Belgique.
 </t>
@@ -573,9 +589,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante [1]. Elle est considérée comme vulnérable (VU) en Picardie et Nord-Pas-de-Calais.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En France elle est classée comme non préoccupante . Elle est considérée comme vulnérable (VU) en Picardie et Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Prés et bois humides dans des régions de collines ou basses montagnes jusqu'à 1 200 m d'altitude.
 </t>
